--- a/medicine/Enfance/Prix_Habert-Bégin/Prix_Habert-Bégin.xlsx
+++ b/medicine/Enfance/Prix_Habert-Bégin/Prix_Habert-Bégin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Habert-B%C3%A9gin</t>
+          <t>Prix_Habert-Bégin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix Habert-Bégin, de la fondation Françoise Habert-Bégin, est un « prix biennal de soutien à la création littéraire remis sur proposition de l’Académie française pour récompenser un français, un prêtre ou un catholique, auteur d’acte de dévouement »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix Habert-Bégin, de la fondation Françoise Habert-Bégin, est un « prix biennal de soutien à la création littéraire remis sur proposition de l’Académie française pour récompenser un français, un prêtre ou un catholique, auteur d’acte de dévouement ».
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_Habert-B%C3%A9gin</t>
+          <t>Prix_Habert-Bégin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,25 +523,27 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1988 : R.P. Christian Aurenche (lire Tokombéré).
-1990 : Jacqueline Delhoste pour l'Œuvre de Snehasadan[2].
-1992 : Danielle Noël pour l'ensemble de son œuvre[3].
-1994 : Bernadette Maret pour l'ensemble de son œuvre (Association pour l’enfance abandonnée)[2].
-1996 : Germaine Moreau pour son action au sein de l’Association française pour l’enfance abandonnée[2].
-1998 : Hubert Fabrègues pour son action au sein de l’Association française pour l’enfance abandonnée[2].
-2000 : Claude Nevers pour son action au sein de l’Association française pour l’enfance abandonnée[2].
-2002 : R.P. Louis Badinier pour son action au sein de l’Association française pour l’enfance abandonnée[2].
+1990 : Jacqueline Delhoste pour l'Œuvre de Snehasadan.
+1992 : Danielle Noël pour l'ensemble de son œuvre.
+1994 : Bernadette Maret pour l'ensemble de son œuvre (Association pour l’enfance abandonnée).
+1996 : Germaine Moreau pour son action au sein de l’Association française pour l’enfance abandonnée.
+1998 : Hubert Fabrègues pour son action au sein de l’Association française pour l’enfance abandonnée.
+2000 : Claude Nevers pour son action au sein de l’Association française pour l’enfance abandonnée.
+2002 : R.P. Louis Badinier pour son action au sein de l’Association française pour l’enfance abandonnée.
 2004 :
 Véronique Lemair, veuve ayant élevé 4 enfants.
 Maryse Pique, veuve ayant élevé 14 enfants.
 Léonie Robillard, veuve ayant élevé 13 enfants.
-2006 : Mariette Garrabe-Ferran[4].
+2006 : Mariette Garrabe-Ferran.
 2008 : Jean-Guilhem Xerri pour son action au sein de l’association « Aux captifs la libération ».
-2010 : Père André Le Barzic, prêtre missionnaire de Saint Jacques à Port-au-Prince, en Haïti[5].
-2012 : Abbé Philippe Rio pour son action auprès des enfants de la paroisse de Mongo à N’Djamena, au Tchad[6].
-2014 : Laurence Kwark[7]</t>
+2010 : Père André Le Barzic, prêtre missionnaire de Saint Jacques à Port-au-Prince, en Haïti.
+2012 : Abbé Philippe Rio pour son action auprès des enfants de la paroisse de Mongo à N’Djamena, au Tchad.
+2014 : Laurence Kwark</t>
         </is>
       </c>
     </row>
